--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2608599.882237447</v>
+        <v>2606712.300721044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>119.7237233914571</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>105.3980171505017</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>61.40402402712849</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>291.07204512627</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>44.10729826219391</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.2570633735997</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>371.8857184493394</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>125.2937929527176</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>26.26583888007744</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>91.94988401775079</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>90.75180619639561</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.37729220500619</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>173.2244914873031</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>175.9070269162013</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>149.0799667719503</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>265.2692612118958</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>77.8682875383153</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.042680388411813</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>18.66111384519222</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463158</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2576.216037087458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2322.454251725549</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2322.454251725549</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.685596455435</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.219838194355</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1206.080506218543</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>621.666340620069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,19 +4583,19 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
         <v>2443.387305656314</v>
@@ -4604,13 +4604,13 @@
         <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4665,22 +4665,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D7" t="n">
-        <v>323.3278565882118</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>175.4147630058187</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>175.4147630058187</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>175.4147630058187</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>175.4147630058187</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1549.547090562792</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1180.58457362238</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>822.3188750156298</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>436.5306224173856</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>429.5851216681821</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626914</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1936.146930626914</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1936.146930626914</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.146930626914</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
         <v>369.8327295799424</v>
@@ -4951,61 +4951,61 @@
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>701.5978338225178</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5978338225178</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775513</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.0957621852867</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0957621852867</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>190.0957621852867</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>190.0957621852867</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1407.247779450432</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1183.462364239938</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570739</v>
+        <v>894.3337254534956</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570739</v>
+        <v>604.9165554165351</v>
       </c>
       <c r="X13" t="n">
-        <v>592.5368061590565</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y13" t="n">
-        <v>371.7442270155263</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8299478944151</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8299478944151</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>265.7133084820794</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>117.8002148996862</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>117.8002148996861</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1323.942036732344</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1034.813397945902</v>
       </c>
       <c r="V16" t="n">
-        <v>933.236668829393</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924325</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8299478944151</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8299478944151</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1210.157301547807</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>921.0286627613651</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>666.3441745554783</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018334</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,28 +6166,28 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018334</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6257,13 +6257,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028587</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1031.04751177457</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>776.3630235686835</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>486.9458535317229</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X28" t="n">
-        <v>486.9458535317229</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.3668169895383</v>
+        <v>565.4200295030878</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430021</v>
+        <v>546.5704195584492</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430021</v>
+        <v>452.2146454274844</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430021</v>
+        <v>360.062417126462</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818917</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652451</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030856</v>
+        <v>565.4200295030878</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,52 +7093,52 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525396</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,7 +7312,7 @@
         <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
         <v>398.95459630832</v>
@@ -7324,19 +7324,19 @@
         <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,10 +7363,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7403,16 +7403,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083213</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850452</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7597,7 +7597,7 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.4753596397814</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>53.47116400518046</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>107.1690037872076</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>146.1162762583714</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583893</v>
+        <v>48.32306957108618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>45.64053414218799</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>103.0576765518777</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518773</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>20.96809118668148</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>140.7163658137795</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.5860431649685</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>93.38245062487849</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.298961066497191e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835031.0885868352</v>
+        <v>835031.0885868353</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179055</v>
+        <v>610233.2060179049</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.275352772026089e-11</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284555</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106721</v>
+        <v>40339.23010106723</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.497666266</v>
+        <v>-222678.4976662656</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482792</v>
+        <v>367289.3815482786</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482793</v>
+        <v>367289.381548279</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592051</v>
+        <v>-52875.83953189301</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709761</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709758</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709757</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709759</v>
+        <v>472284.1969450031</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783828</v>
+        <v>295860.9777524109</v>
       </c>
       <c r="K6" t="n">
-        <v>429103.1620837699</v>
+        <v>429084.6683458348</v>
       </c>
       <c r="L6" t="n">
-        <v>463129.9199491287</v>
+        <v>463129.9199491292</v>
       </c>
       <c r="M6" t="n">
-        <v>338671.8115161586</v>
+        <v>338671.811516159</v>
       </c>
       <c r="N6" t="n">
-        <v>473472.8267499958</v>
+        <v>473472.826749996</v>
       </c>
       <c r="O6" t="n">
-        <v>473472.8267499958</v>
+        <v>473472.8267499962</v>
       </c>
       <c r="P6" t="n">
-        <v>429310.2214471503</v>
+        <v>429310.2214471505</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.844190965032611e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108373</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855694</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.844190965032611e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>96.72459696620065</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>106.7475217995172</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>320.5263460451333</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.1658935297836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>104.5081747560184</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>14.70855841873852</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>41.89845157145555</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>244.4373077257515</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>199.4438165089597</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.105823316955884e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3926104730631</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958058</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
